--- a/2025-10-14/14_ai.full_fixtures.xlsx
+++ b/2025-10-14/14_ai.full_fixtures.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I50"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,11 +488,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Morocco  - Republic of the Congo: 20:00</t>
+          <t>Morocco ✓ - Republic of the Congo: 1:0</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2.91</v>
+        <v>1.87</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -500,19 +500,23 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>83%</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>82%</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H2" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -523,15 +527,15 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Puerto Rico - Argentina : 00:00</t>
+          <t>Latvia - England ✓: 0:5</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1.66</v>
+        <v>1.39</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>England</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -539,15 +543,19 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>79%</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>80%</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -562,7 +570,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2.83</v>
+        <v>2.9</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -574,7 +582,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>78%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="G4" t="inlineStr"/>
@@ -593,23 +601,23 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Malaysia ✓ - Laos: 5:1</t>
+          <t>Russia ✓ - Bolivia: 3:0</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2.56</v>
+        <v>4.25</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Malaysia</t>
+          <t>Russia</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -618,10 +626,10 @@
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -632,31 +640,31 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo  - Sudan: 20:00</t>
+          <t>Puerto Rico - Argentina : 00:00</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.72</v>
+        <v>1.66</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Democratic Republic of the Congo</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>73%</t>
+          <t>79%</t>
         </is>
       </c>
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -667,31 +675,35 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Ivory Coast  - Kenya: 20:00</t>
+          <t>Spain ✓ - Bulgaria: 4:0</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>1.11</v>
+        <v>6.2</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Ivory Coast</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2.5</v>
+        <v>7.5</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>73%</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>79%</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H7" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="I7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8">
@@ -702,35 +714,31 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Iran ✓ - Tanzania: 2:0</t>
+          <t>Portugal  - Hungary: 2:2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.38</v>
+        <v>3.47</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Iran</t>
+          <t>Portugal</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1.5</v>
+        <v>4.5</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>71%</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>77%</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -741,15 +749,15 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>South Africa ✓ - Rwanda: 3:0</t>
+          <t>Senegal ✓ - Mauritania: 4:0</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.85</v>
+        <v>0.2</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>South Africa</t>
+          <t>Senegal</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -757,7 +765,7 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>71%</t>
+          <t>74%</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -766,7 +774,7 @@
         </is>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I9" t="b">
         <v>0</v>
@@ -780,28 +788,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>FBC Melgar  - Alianza Universidad: 00:00</t>
+          <t>Italy ✓ - Israel: 3:0</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.25</v>
+        <v>4.09</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>FBC Melgar</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3.5</v>
+        <v>5.5</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>70%</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>74%</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I10" t="b">
         <v>1</v>
@@ -815,15 +827,15 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Philippines ✓ - Timor-Leste: 3:1</t>
+          <t>Malaysia ✓ - Laos: 5:1</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2.99</v>
+        <v>2.54</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Philippines</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="E11" t="n">
@@ -831,7 +843,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
@@ -840,7 +852,7 @@
         </is>
       </c>
       <c r="H11" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="I11" t="b">
         <v>0</v>
@@ -854,23 +866,23 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Algeria ✓ - Uganda: 2:1</t>
+          <t>Democratic Republic of the Congo ✓ - Sudan: 1:0</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1.44</v>
+        <v>0.61</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Democratic Republic of the Congo</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>70%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -879,10 +891,10 @@
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -893,23 +905,23 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Nepal - Vietnam ✓: 0:1</t>
+          <t>Ivory Coast ✓ - Kenya: 3:0</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1.2</v>
+        <v>0.9</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Vietnam</t>
+          <t>Ivory Coast</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>68%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
@@ -918,10 +930,10 @@
         </is>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -932,23 +944,23 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Costa Rica ✓ - Nicaragua: 4:1</t>
+          <t>Gabon ✓ - Burundi: 2:0</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2.41</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Costa Rica</t>
+          <t>Gabon</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>67%</t>
+          <t>73%</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -957,7 +969,7 @@
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I14" t="b">
         <v>0</v>
@@ -971,15 +983,15 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nigeria ✓ - Benin: 4:0</t>
+          <t>Algeria ✓ - Uganda: 2:1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.06</v>
+        <v>1.34</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Nigeria</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="E15" t="n">
@@ -987,7 +999,7 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>64%</t>
+          <t>72%</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
@@ -996,7 +1008,7 @@
         </is>
       </c>
       <c r="H15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I15" t="b">
         <v>0</v>
@@ -1010,23 +1022,23 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chinese Taipei - Thailand ✓: 1:6</t>
+          <t>Nigeria ✓ - Benin: 4:0</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3.56</v>
+        <v>0.92</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Thailand</t>
+          <t>Nigeria</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>58%</t>
+          <t>71%</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
@@ -1035,7 +1047,7 @@
         </is>
       </c>
       <c r="H16" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="I16" t="b">
         <v>0</v>
@@ -1049,31 +1061,31 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Guinea  - Botswana: 2:2</t>
+          <t>FBC Melgar  - Alianza Universidad: 00:00</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.43</v>
+        <v>2.25</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Guinea</t>
+          <t>FBC Melgar</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>56%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G17" t="inlineStr"/>
       <c r="H17" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1084,23 +1096,23 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Maldives - Tajikistan ✓: 0:3</t>
+          <t>Philippines ✓ - Timor-Leste: 3:1</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.72</v>
+        <v>3.02</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Tajikistan</t>
+          <t>Philippines</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>53%</t>
+          <t>70%</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
@@ -1109,10 +1121,10 @@
         </is>
       </c>
       <c r="H18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1123,23 +1135,23 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>South Korea ✓ - Paraguay: 2:0</t>
+          <t>Nepal - Vietnam ✓: 0:1</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.45</v>
+        <v>1.5</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>South Korea</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>52%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
@@ -1148,10 +1160,10 @@
         </is>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
@@ -1162,28 +1174,28 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Charleston Battery  - Colorado Springs Switchbacks FC: 00:30</t>
+          <t>Guinea  - Botswana: 2:2</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1.97</v>
+        <v>0.49</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Charleston Battery</t>
+          <t>Guinea</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>51%</t>
+          <t>68%</t>
         </is>
       </c>
       <c r="G20" t="inlineStr"/>
       <c r="H20" t="n">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="I20" t="b">
         <v>0</v>
@@ -1197,15 +1209,15 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>San Francisco FC  - SD Atlético Nacional: 02:30</t>
+          <t>Costa Rica ✓ - Nicaragua: 4:1</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2.18</v>
+        <v>2.31</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>San Francisco FC</t>
+          <t>Costa Rica</t>
         </is>
       </c>
       <c r="E21" t="n">
@@ -1213,12 +1225,16 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>49%</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>67%</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H21" t="n">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="I21" t="b">
         <v>0</v>
@@ -1232,28 +1248,32 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Imbabura SC  - CSD Vargas Torres: 23:00</t>
+          <t>Iran ✓ - Tanzania: 2:0</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1.67</v>
+        <v>0.46</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Imbabura SC</t>
+          <t>Iran</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>45%</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>66%</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H22" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I22" t="b">
         <v>0</v>
@@ -1267,28 +1287,32 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Atlético Vinotinto  - Chacaritas FC: 23:00</t>
+          <t>South Africa ✓ - Rwanda: 3:0</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2.37</v>
+        <v>0.25</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Atlético Vinotinto</t>
+          <t>South Africa</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>42%</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>61%</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H23" t="n">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="I23" t="b">
         <v>0</v>
@@ -1302,23 +1326,23 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Viktoriya Sumy ✓ - SC Metalurg Zaporizhya: 3:0</t>
+          <t>Albania ✓ - Jordan: 4:2</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1.31</v>
+        <v>0</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Viktoriya Sumy</t>
+          <t>Albania</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>42%</t>
+          <t>59%</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
@@ -1327,7 +1351,7 @@
         </is>
       </c>
       <c r="H24" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="I24" t="b">
         <v>0</v>
@@ -1341,23 +1365,23 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Seychelles - The Gambia ✓: 0:7</t>
+          <t>Chinese Taipei - Thailand ✓: 1:6</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2.37</v>
+        <v>3.23</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>The Gambia</t>
+          <t>Thailand</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>40%</t>
+          <t>58%</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1380,23 +1404,23 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Somalia - Mozambique ✓: 0:1</t>
+          <t>Turkiye ✓ - Georgia: 4:1</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.73</v>
+        <v>2.46</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Mozambique</t>
+          <t>Turkiye</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1.5</v>
+        <v>3.5</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>35%</t>
+          <t>57%</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -1405,10 +1429,10 @@
         </is>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1419,15 +1443,15 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Fortaleza CEIF ✓ - Boyacá Chicó FC: 1:0</t>
+          <t>Maldives - Tajikistan ✓: 0:3</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1.03</v>
+        <v>1.76</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Fortaleza CEIF</t>
+          <t>Tajikistan</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1435,7 +1459,7 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>34%</t>
+          <t>53%</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -1444,10 +1468,10 @@
         </is>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1458,15 +1482,15 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Saudi Arabia  - Iraq: 19:45</t>
+          <t>South Korea ✓ - Paraguay: 2:0</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.58</v>
+        <v>1</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Saudi Arabia</t>
+          <t>South Korea</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1474,12 +1498,16 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>33%</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>52%</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H28" t="n">
-        <v>64</v>
+        <v>2</v>
       </c>
       <c r="I28" t="b">
         <v>0</v>
@@ -1493,15 +1521,15 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Clube de Regatas Brasil (AL)  - Ferroviária: 2:2</t>
+          <t>Charleston Battery  - Colorado Springs Switchbacks FC: 00:30</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1.63</v>
+        <v>1.97</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Clube de Regatas Brasil (AL)</t>
+          <t>Charleston Battery</t>
         </is>
       </c>
       <c r="E29" t="n">
@@ -1509,12 +1537,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>32%</t>
+          <t>51%</t>
         </is>
       </c>
       <c r="G29" t="inlineStr"/>
       <c r="H29" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="I29" t="b">
         <v>0</v>
@@ -1528,28 +1556,28 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Sporting FC  - Municipal Pérez Zeledón: 23:30</t>
+          <t>San Francisco FC  - SD Atlético Nacional: 02:30</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1.14</v>
+        <v>2.18</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Sporting FC</t>
+          <t>San Francisco FC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>30%</t>
+          <t>49%</t>
         </is>
       </c>
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="I30" t="b">
         <v>0</v>
@@ -1563,15 +1591,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>22 de Julio FC  - Cumbayá FC: 23:00</t>
+          <t>Imbabura SC  - CSD Vargas Torres: 23:00</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>22 de Julio FC</t>
+          <t>Imbabura SC</t>
         </is>
       </c>
       <c r="E31" t="n">
@@ -1579,7 +1607,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>29%</t>
+          <t>45%</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1598,23 +1626,23 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Independiente Juniors  - Gualaceo SC: 23:00</t>
+          <t>Atlético Vinotinto  - Chacaritas FC: 23:00</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.17</v>
+        <v>2.37</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Independiente Juniors</t>
+          <t>Atlético Vinotinto</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2.5</v>
+        <v>3.5</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>27%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1633,23 +1661,23 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Agrobiznes Volochysk ✓ - Feniks-Mariupol: 1:0</t>
+          <t>Viktoriya Sumy ✓ - SC Metalurg Zaporizhya: 3:0</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.74</v>
+        <v>1.32</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Agrobiznes Volochysk</t>
+          <t>Viktoriya Sumy</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>26%</t>
+          <t>42%</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
@@ -1658,10 +1686,10 @@
         </is>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1672,32 +1700,32 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>India X - Singapore: 1:2</t>
+          <t>Seychelles - The Gambia ✓: 0:7</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>1.18</v>
+        <v>3.38</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>India</t>
+          <t>The Gambia</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>22%</t>
+          <t>40%</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H34" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I34" t="b">
         <v>0</v>
@@ -1711,31 +1739,35 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Leones FC  - San Antonio FC: 23:00</t>
+          <t>Republic of Ireland ✓ - Armenia: 1:0</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>0.62</v>
+        <v>1.45</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Leones FC</t>
+          <t>Republic of Ireland</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>19%</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr"/>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H35" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="I35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1746,28 +1778,32 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ugyen Academy FC  - BFF Academy FC: 11:00</t>
+          <t>Andorra - Serbia ✓: 1:3</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>2.65</v>
+        <v>0</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Ugyen Academy FC</t>
+          <t>Serbia</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3.5</v>
+        <v>0.5</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>18%</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr"/>
+          <t>39%</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H36" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I36" t="b">
         <v>0</v>
@@ -1781,32 +1817,32 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Honduras - Haiti X: 3:0</t>
+          <t>Fortaleza CEIF ✓ - Boyacá Chicó FC: 1:0</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3.19</v>
+        <v>0.99</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Haiti</t>
+          <t>Fortaleza CEIF</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>18%</t>
+          <t>34%</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H37" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I37" t="b">
         <v>1</v>
@@ -1820,31 +1856,31 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Associação Chapecoense de Futebol  - Botafogo FC: 23:30</t>
+          <t>Saudi Arabia  - Iraq: 0:0</t>
         </is>
       </c>
       <c r="C38" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Saudi Arabia</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
         <v>1.5</v>
       </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Associação Chapecoense de Futebol</t>
-        </is>
-      </c>
-      <c r="E38" t="n">
-        <v>2.5</v>
-      </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>33%</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
       <c r="H38" t="n">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="I38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1855,15 +1891,15 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Myanmar - Syria ✓: 0:3</t>
+          <t>Clube de Regatas Brasil (AL)  - Ferroviária: 2:2</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>1.13</v>
+        <v>1.59</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Syria</t>
+          <t>Clube de Regatas Brasil (AL)</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1871,16 +1907,12 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>32%</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr"/>
       <c r="H39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I39" t="b">
         <v>0</v>
@@ -1894,31 +1926,31 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Guayaquil City FC  - AD Nueve de Octubre: 23:00</t>
+          <t>Associação Chapecoense de Futebol  - Botafogo FC: 1:1</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.67</v>
+        <v>1.42</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Guayaquil City FC</t>
+          <t>Associação Chapecoense de Futebol</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>17%</t>
+          <t>30%</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
       <c r="H40" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="I40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41">
@@ -1929,32 +1961,28 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Turkmenistan ✓ - Sri Lanka: 2:1</t>
+          <t>Sporting FC  - Municipal Pérez Zeledón: 23:30</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.57</v>
+        <v>1.14</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Turkmenistan</t>
+          <t>Sporting FC</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>17%</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>30%</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>53</v>
       </c>
       <c r="I41" t="b">
         <v>0</v>
@@ -1968,32 +1996,28 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Bhutan - Lebanon ✓: 0:4</t>
+          <t>22 de Julio FC  - Cumbayá FC: 23:00</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.08</v>
+        <v>1.5</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Lebanon</t>
+          <t>22 de Julio FC</t>
         </is>
       </c>
       <c r="E42" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>29%</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr"/>
       <c r="H42" t="n">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I42" t="b">
         <v>0</v>
@@ -2007,32 +2031,28 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Japan - Brazil X: 3:2</t>
+          <t>Independiente Juniors  - Gualaceo SC: 23:00</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.66</v>
+        <v>1.17</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Independiente Juniors</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>16%</t>
-        </is>
-      </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>X</t>
-        </is>
-      </c>
+          <t>27%</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
       <c r="H43" t="n">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="I43" t="b">
         <v>0</v>
@@ -2046,23 +2066,23 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Rangers de Talca ✓ - Deportes Antofagasta: 2:1</t>
+          <t>Bhutan - Lebanon ✓: 0:4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>1.63</v>
+        <v>0.33</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Rangers de Talca</t>
+          <t>Lebanon</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>27%</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -2071,7 +2091,7 @@
         </is>
       </c>
       <c r="H44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I44" t="b">
         <v>0</v>
@@ -2085,15 +2105,15 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>UMECIT FC X - Sporting San Miguelito: 2:3</t>
+          <t>Agrobiznes Volochysk ✓ - Feniks-Mariupol: 1:0</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>0.46</v>
+        <v>0.67</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>UMECIT FC</t>
+          <t>Agrobiznes Volochysk</t>
         </is>
       </c>
       <c r="E45" t="n">
@@ -2101,19 +2121,19 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>14%</t>
+          <t>26%</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>X</t>
+          <t>✓</t>
         </is>
       </c>
       <c r="H45" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I45" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -2124,15 +2144,15 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Matagalpa FC  - UNAN Managua: 21:00</t>
+          <t>India X - Singapore: 1:2</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>1.88</v>
+        <v>1.1</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Matagalpa FC</t>
+          <t>India</t>
         </is>
       </c>
       <c r="E46" t="n">
@@ -2140,12 +2160,16 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>11%</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr"/>
+          <t>22%</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
       <c r="H46" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I46" t="b">
         <v>0</v>
@@ -2159,28 +2183,32 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Estonia  - Moldova: 1:1</t>
+          <t>Somalia - Mozambique ✓: 0:1</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>1.32</v>
+        <v>0.68</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Mozambique</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>10%</t>
-        </is>
-      </c>
-      <c r="G47" t="inlineStr"/>
+          <t>21%</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I47" t="b">
         <v>1</v>
@@ -2194,28 +2222,32 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Paysandu SC - Clube do Remo (PA) : 23:30</t>
+          <t>Yemen ✓ - Brunei Darussalam: 9:0</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2.12</v>
+        <v>0.79</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Clube do Remo (PA)</t>
+          <t>Yemen</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>3.5</v>
+        <v>1.5</v>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>9%</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr"/>
+          <t>20%</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
       <c r="H48" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="I48" t="b">
         <v>0</v>
@@ -2229,31 +2261,31 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>San Luis de Quillota  - Deportes Recoleta: 0:0</t>
+          <t>Leones FC  - San Antonio FC: 23:00</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>1.13</v>
+        <v>0.62</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>San Luis de Quillota</t>
+          <t>Leones FC</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>2.5</v>
+        <v>1.5</v>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6%</t>
+          <t>19%</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
@@ -2264,30 +2296,560 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Ugyen Academy FC ✓ - BFF Academy FC: 3:0</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Ugyen Academy FC</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>3</v>
+      </c>
+      <c r="I50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Honduras - Haiti X: 3:0</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Haiti</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>18%</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>3</v>
+      </c>
+      <c r="I51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Myanmar - Syria ✓: 0:3</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Syria</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>3</v>
+      </c>
+      <c r="I52" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC  - AD Nueve de Octubre: 23:00</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Guayaquil City FC</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr"/>
+      <c r="H53" t="n">
+        <v>23</v>
+      </c>
+      <c r="I53" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Qatar - United Arab Emirates X: 2:1</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>United Arab Emirates</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+      <c r="I54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Turkmenistan ✓ - Sri Lanka: 2:1</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Turkmenistan</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>17%</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+      <c r="I55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Japan - Brazil X: 3:2</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>16%</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+      <c r="I56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Rangers de Talca ✓ - Deportes Antofagasta: 2:1</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Rangers de Talca</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+      <c r="I57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>UMECIT FC X - Sporting San Miguelito: 2:3</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>UMECIT FC</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>14%</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+      <c r="I58" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Paysandu SC - Clube do Remo (PA) ✓: 2:3</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Clube do Remo (PA)</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>13%</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+      <c r="I59" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Matagalpa FC  - UNAN Managua: 21:00</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Matagalpa FC</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
+      <c r="H60" t="n">
+        <v>21</v>
+      </c>
+      <c r="I60" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava B X - MSK Povazska Bystrica: 2:4</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Slovan Bratislava B</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>11%</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+      <c r="I61" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>San Luis de Quillota  - Deportes Recoleta: 0:0</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>San Luis de Quillota</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>6%</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr"/>
+      <c r="H62" t="n">
+        <v>0</v>
+      </c>
+      <c r="I62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Estonia  - Moldova: 1:1</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3%</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr"/>
+      <c r="H63" t="n">
+        <v>2</v>
+      </c>
+      <c r="I63" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Tue Oct 14</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
           <t>Afghanistan  - Pakistan: 1:1</t>
         </is>
       </c>
-      <c r="C50" t="n">
-        <v>0</v>
-      </c>
-      <c r="D50" t="inlineStr">
+      <c r="C64" t="n">
+        <v>0</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>Afghanistan</t>
         </is>
       </c>
-      <c r="E50" t="n">
+      <c r="E64" t="n">
         <v>0.5</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1%</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="n">
+      <c r="G64" t="inlineStr"/>
+      <c r="H64" t="n">
         <v>2</v>
       </c>
-      <c r="I50" t="b">
+      <c r="I64" t="b">
         <v>0</v>
       </c>
     </row>
